--- a/XurtepNominas/bin/Debug/Archivos/nominasmarinos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominasmarinos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="649" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="649"/>
   </bookViews>
   <sheets>
     <sheet name="MARINOS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
   <si>
     <t>TRABAJADOR</t>
   </si>
@@ -173,18 +173,6 @@
   </si>
   <si>
     <t>INFONAVIT</t>
-  </si>
-  <si>
-    <t>TOTAL DEPOSITOS DRUPP</t>
-  </si>
-  <si>
-    <t>TOTAL DEPOSITOS SPROUL</t>
-  </si>
-  <si>
-    <t>FACT DRUPP</t>
-  </si>
-  <si>
-    <t>FACT SPROUL</t>
   </si>
   <si>
     <t>NSS</t>
@@ -1915,20 +1903,20 @@
     <xf numFmtId="43" fontId="17" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2798,7 +2786,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,7 +2865,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2956,7 +2944,7 @@
         <xdr:cNvPr id="2" name="1 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3423,12 +3411,12 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane xSplit="4" ySplit="7" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3765,152 +3753,152 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="50" t="s">
+      <c r="Q9" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="31"/>
+      <c r="T9" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="V9" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z9" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA9" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC9" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="P9" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q9" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="31"/>
-      <c r="T9" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="U9" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="V9" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y9" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z9" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA9" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB9" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC9" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD9" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE9" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF9" s="50" t="s">
+      <c r="AD9" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE9" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF9" s="49" t="s">
         <v>1</v>
       </c>
       <c r="AG9" s="33"/>
       <c r="AH9" s="33"/>
-      <c r="AI9" s="50" t="s">
+      <c r="AI9" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AK9" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL9" s="53" t="s">
-        <v>83</v>
+      <c r="AK9" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL9" s="51" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="51"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="52"/>
       <c r="S10" s="31"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="50"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="49"/>
       <c r="AG10" s="32" t="s">
         <v>2</v>
       </c>
       <c r="AH10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AI10" s="50"/>
-      <c r="AK10" s="52"/>
-      <c r="AL10" s="53"/>
+      <c r="AI10" s="49"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="51"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F11" s="30"/>
@@ -3994,79 +3982,35 @@
       <c r="F18" s="7"/>
       <c r="R18" s="20"/>
     </row>
-    <row r="19" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="20" t="e">
-        <f>#REF!+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="7" t="e">
-        <f>#REF!+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C20" s="12"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C22" s="12"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C23" s="12"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C25" s="12"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C26" s="12"/>
+      <c r="D26" s="7"/>
+    </row>
     <row r="28" spans="3:18" x14ac:dyDescent="0.25">
       <c r="R28" s="23"/>
     </row>
@@ -4089,6 +4033,24 @@
     <sortCondition ref="C11:C23"/>
   </sortState>
   <mergeCells count="34">
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="AK9:AK10"/>
@@ -4105,24 +4067,6 @@
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AE9:AE10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
@@ -4198,7 +4142,7 @@
     <row r="2" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -4249,7 +4193,7 @@
       <c r="B4" s="43"/>
       <c r="C4" s="42"/>
       <c r="D4" s="58" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="42"/>
@@ -4366,7 +4310,7 @@
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="57" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="57"/>
@@ -4391,7 +4335,7 @@
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -4415,7 +4359,7 @@
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4478,7 +4422,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>33</v>
@@ -4502,10 +4446,10 @@
         <v>17</v>
       </c>
       <c r="O11" s="47" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="47" t="s">
         <v>18</v>
@@ -4541,7 +4485,7 @@
         <v>27</v>
       </c>
       <c r="AB11" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AC11" s="15" t="s">
         <v>28</v>
@@ -4553,16 +4497,16 @@
         <v>44</v>
       </c>
       <c r="AF11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AG11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH11" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="AI11" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ11" s="16" t="s">
         <v>35</v>
@@ -4638,7 +4582,7 @@
     <row r="2" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -4663,7 +4607,7 @@
       <c r="B4" s="37"/>
       <c r="C4" s="36"/>
       <c r="D4" s="58" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="36"/>
@@ -4706,7 +4650,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
@@ -4718,7 +4662,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -4744,7 +4688,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>33</v>
@@ -4768,10 +4712,10 @@
         <v>17</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="15" t="s">
         <v>18</v>
@@ -4807,7 +4751,7 @@
         <v>27</v>
       </c>
       <c r="AB11" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AC11" s="15" t="s">
         <v>28</v>
@@ -4819,16 +4763,16 @@
         <v>44</v>
       </c>
       <c r="AF11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AG11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH11" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="AI11" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ11" s="16" t="s">
         <v>35</v>
@@ -4883,19 +4827,19 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>68</v>
       </c>
       <c r="F1" s="38" t="s">
         <v>16</v>
@@ -4907,10 +4851,10 @@
         <v>38</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K1" s="34" t="s">
         <v>13</v>
@@ -4945,7 +4889,7 @@
   </sheetPr>
   <dimension ref="B3:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4967,44 +4911,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>57</v>
+      <c r="I3" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
+      <c r="B4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D5" s="46"/>

--- a/XurtepNominas/bin/Debug/Archivos/nominasmarinos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominasmarinos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="649"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="649" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MARINOS" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MARINOS!$A$10:$AP$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">RESUMEN!$B$3:$K$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'XURTEP ABORDO'!$A$11:$AK$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'XURTEP ABORDO'!$A$11:$AL$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'ASIMILADOS DESCANSO '!$A$1:$L$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MARINOS!$C$9:$F$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">RESUMEN!$B$3:$K$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'XURTEP ABORDO'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'XURTEP DESCANSO'!$A$1:$AL$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'XURTEP DESCANSO'!$A$1:$AM$11</definedName>
     <definedName name="puestos">[1]puestos!$A$5:$A$24</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
   <si>
     <t>TRABAJADOR</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>TOTAL COSTO SOCIAL</t>
+  </si>
+  <si>
+    <t>AJUSTE INFONAVIT</t>
   </si>
 </sst>
 </file>
@@ -3411,12 +3414,12 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="X11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19:D26"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4077,13 +4080,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AL12"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane xSplit="1" ySplit="11" topLeftCell="T12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4109,13 +4112,14 @@
     <col min="29" max="30" width="11.42578125" customWidth="1"/>
     <col min="31" max="31" width="11.42578125" style="12" customWidth="1"/>
     <col min="32" max="32" width="11.42578125" style="22" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" style="12" customWidth="1"/>
-    <col min="34" max="35" width="11.42578125" style="22" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" style="12" customWidth="1"/>
-    <col min="37" max="37" width="15.5703125" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" style="46" customWidth="1"/>
+    <col min="34" max="34" width="13" style="12" customWidth="1"/>
+    <col min="35" max="36" width="11.42578125" style="22" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" style="12" customWidth="1"/>
+    <col min="38" max="38" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="44"/>
       <c r="B1" s="54" t="s">
         <v>31</v>
@@ -4135,11 +4139,11 @@
       <c r="AC1" s="22"/>
       <c r="AD1" s="22"/>
       <c r="AE1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AJ1" s="22"/>
+      <c r="AH1" s="22"/>
       <c r="AK1" s="22"/>
-    </row>
-    <row r="2" spans="1:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="AL1" s="22"/>
+    </row>
+    <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="55" t="s">
         <v>49</v>
@@ -4159,11 +4163,11 @@
       <c r="AC2" s="22"/>
       <c r="AD2" s="22"/>
       <c r="AE2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AJ2" s="22"/>
+      <c r="AH2" s="22"/>
       <c r="AK2" s="22"/>
-    </row>
-    <row r="3" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL2" s="22"/>
+    </row>
+    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="56" t="s">
         <v>32</v>
@@ -4184,11 +4188,11 @@
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
       <c r="AE3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AJ3" s="22"/>
+      <c r="AH3" s="22"/>
       <c r="AK3" s="22"/>
-    </row>
-    <row r="4" spans="1:37" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL3" s="22"/>
+    </row>
+    <row r="4" spans="1:38" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="43"/>
       <c r="C4" s="42"/>
@@ -4223,13 +4227,14 @@
       <c r="AD4" s="22"/>
       <c r="AE4" s="22"/>
       <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
+      <c r="AG4" s="46"/>
       <c r="AH4" s="22"/>
       <c r="AI4" s="22"/>
       <c r="AJ4" s="22"/>
       <c r="AK4" s="22"/>
-    </row>
-    <row r="5" spans="1:37" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL4" s="22"/>
+    </row>
+    <row r="5" spans="1:38" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="43"/>
       <c r="C5" s="42"/>
@@ -4262,13 +4267,14 @@
       <c r="AD5" s="22"/>
       <c r="AE5" s="22"/>
       <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
+      <c r="AG5" s="46"/>
       <c r="AH5" s="22"/>
       <c r="AI5" s="22"/>
       <c r="AJ5" s="22"/>
       <c r="AK5" s="22"/>
-    </row>
-    <row r="6" spans="1:37" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL5" s="22"/>
+    </row>
+    <row r="6" spans="1:38" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="43"/>
       <c r="C6" s="42"/>
@@ -4301,13 +4307,14 @@
       <c r="AD6" s="22"/>
       <c r="AE6" s="23"/>
       <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
+      <c r="AG6" s="46"/>
       <c r="AH6" s="22"/>
       <c r="AI6" s="22"/>
       <c r="AJ6" s="22"/>
       <c r="AK6" s="22"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL6" s="22"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="57" t="s">
         <v>82</v>
@@ -4328,11 +4335,11 @@
       <c r="AC7" s="22"/>
       <c r="AD7" s="22"/>
       <c r="AE7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AJ7" s="22"/>
+      <c r="AH7" s="22"/>
       <c r="AK7" s="22"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL7" s="22"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="11" t="s">
         <v>50</v>
@@ -4352,11 +4359,11 @@
       <c r="AC8" s="22"/>
       <c r="AD8" s="22"/>
       <c r="AE8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AJ8" s="22"/>
+      <c r="AH8" s="22"/>
       <c r="AK8" s="22"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL8" s="22"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="11" t="s">
         <v>51</v>
@@ -4376,11 +4383,11 @@
       <c r="AC9" s="22"/>
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AJ9" s="22"/>
+      <c r="AH9" s="22"/>
       <c r="AK9" s="22"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL9" s="22"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -4398,11 +4405,11 @@
       <c r="AC10" s="22"/>
       <c r="AD10" s="22"/>
       <c r="AE10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AJ10" s="22"/>
+      <c r="AH10" s="22"/>
       <c r="AK10" s="22"/>
-    </row>
-    <row r="11" spans="1:37" s="8" customFormat="1" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AL10" s="22"/>
+    </row>
+    <row r="11" spans="1:38" s="8" customFormat="1" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
@@ -4500,22 +4507,25 @@
         <v>76</v>
       </c>
       <c r="AG11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AH11" s="15" t="s">
+      <c r="AI11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AI11" s="15" t="s">
+      <c r="AJ11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AJ11" s="16" t="s">
+      <c r="AK11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AK11" s="18" t="s">
+      <c r="AL11" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A12:AK25">
     <sortCondition ref="B12:B25"/>
@@ -4539,13 +4549,13 @@
   <sheetPr codeName="Hoja8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4562,12 +4572,15 @@
     <col min="11" max="11" width="15.42578125" style="22" customWidth="1"/>
     <col min="12" max="25" width="11.42578125" style="22" customWidth="1"/>
     <col min="26" max="28" width="12.85546875" style="22" customWidth="1"/>
-    <col min="29" max="36" width="11.42578125" style="22" customWidth="1"/>
-    <col min="37" max="37" width="12.7109375" style="22" customWidth="1"/>
-    <col min="38" max="16384" width="10.85546875" style="22"/>
+    <col min="29" max="31" width="11.42578125" style="22" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" style="22" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" style="46" customWidth="1"/>
+    <col min="34" max="37" width="11.42578125" style="22" customWidth="1"/>
+    <col min="38" max="38" width="12.7109375" style="22" customWidth="1"/>
+    <col min="39" max="16384" width="10.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="54" t="s">
         <v>31</v>
@@ -4579,7 +4592,7 @@
       <c r="G1" s="59"/>
       <c r="H1" s="59"/>
     </row>
-    <row r="2" spans="1:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="55" t="s">
         <v>49</v>
@@ -4591,7 +4604,7 @@
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
     </row>
-    <row r="3" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="56" t="s">
         <v>32</v>
       </c>
@@ -4603,7 +4616,7 @@
       <c r="H3" s="59"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="37"/>
       <c r="C4" s="36"/>
       <c r="D4" s="58" t="s">
@@ -4615,7 +4628,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="37"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -4625,7 +4638,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="37"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -4635,7 +4648,7 @@
       <c r="H6" s="36"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="str">
         <f>'XURTEP ABORDO'!B7:H7</f>
         <v>Periodo  Adicional del 01/09/2018 al 30/09/2018</v>
@@ -4648,7 +4661,7 @@
       <c r="H7" s="61"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>50</v>
       </c>
@@ -4660,15 +4673,15 @@
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="36"/>
     </row>
-    <row r="11" spans="1:37" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
@@ -4766,24 +4779,27 @@
         <v>76</v>
       </c>
       <c r="AG11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AH11" s="15" t="s">
+      <c r="AI11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AI11" s="15" t="s">
+      <c r="AJ11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AJ11" s="16" t="s">
+      <c r="AK11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AK11" s="18" t="s">
+      <c r="AL11" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AK13" s="23"/>
+    <row r="12" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL13" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/XurtepNominas/bin/Debug/Archivos/nominasmarinos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominasmarinos.xlsx
@@ -18,27 +18,46 @@
     <sheet name="ASIMILADOS DESCANSO " sheetId="28" r:id="rId4"/>
     <sheet name="Hoja4" sheetId="31" r:id="rId5"/>
     <sheet name="RESUMEN" sheetId="3" r:id="rId6"/>
+    <sheet name="PENSION ALIMENTICIA" sheetId="33" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
+    <definedName name="__TC1">[1]FOR!$B$9</definedName>
+    <definedName name="__TC2">[1]FOR!$B$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MARINOS!$A$10:$AP$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'PENSION ALIMENTICIA'!$B$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">RESUMEN!$B$3:$K$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'XURTEP ABORDO'!$A$11:$AL$11</definedName>
+    <definedName name="_TC1">[2]FOR!$B$9</definedName>
+    <definedName name="_TC2">[2]FOR!$B$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'ASIMILADOS DESCANSO '!$A$1:$L$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MARINOS!$C$9:$F$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">RESUMEN!$B$3:$K$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'XURTEP ABORDO'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'XURTEP DESCANSO'!$A$1:$AM$11</definedName>
-    <definedName name="puestos">[1]puestos!$A$5:$A$24</definedName>
+    <definedName name="LICS">[3]FOR!$F$59:$F$71</definedName>
+    <definedName name="LIIMP">[3]FOR!$F$36:$F$40</definedName>
+    <definedName name="LISUB">[3]FOR!$F$46:$F$53</definedName>
+    <definedName name="mensual1">[3]FOR!$F$36:$I$40</definedName>
+    <definedName name="mensual2">[3]FOR!$F$46:$I$53</definedName>
+    <definedName name="mensual3">[3]FOR!$F$59:$H$71</definedName>
+    <definedName name="puestos">[4]puestos!$A$5:$A$24</definedName>
+    <definedName name="SMG">[2]FOR!$B$2</definedName>
+    <definedName name="STATUS">#REF!</definedName>
+    <definedName name="TCF">[2]FOR!$B$8</definedName>
+    <definedName name="VSDF">[2]FOR!$B$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>TRABAJADOR</t>
   </si>
@@ -296,6 +315,24 @@
   </si>
   <si>
     <t>AJUSTE INFONAVIT</t>
+  </si>
+  <si>
+    <t>NOMBRE TRABAJADOR</t>
+  </si>
+  <si>
+    <t>NOMBRE BENFICIARIO</t>
+  </si>
+  <si>
+    <t>PORCENTAJE</t>
+  </si>
+  <si>
+    <t>MONTO ABORDO</t>
+  </si>
+  <si>
+    <t>MONTO DESCANSO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -314,7 +351,7 @@
     <numFmt numFmtId="170" formatCode="[$-80A]General"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,8 +723,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -846,8 +907,14 @@
         <fgColor indexed="26"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1001,8 +1068,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="796">
+  <cellStyleXfs count="799">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -1805,8 +1902,11 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1906,6 +2006,17 @@
     <xf numFmtId="43" fontId="17" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="13" xfId="753" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="31" borderId="14" xfId="796" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="797" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="798" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" xfId="797" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="61" fillId="0" borderId="0" xfId="798" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="61" fillId="0" borderId="0" xfId="797" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1944,7 +2055,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="796">
+  <cellStyles count="799">
     <cellStyle name="=C:\WINNT\SYSTEM32\COMMAND.COM" xfId="12"/>
     <cellStyle name="=C:\WINNT\SYSTEM32\COMMAND.COM 2" xfId="13"/>
     <cellStyle name="=C:\WINNT\SYSTEM32\COMMAND.COM 3" xfId="14"/>
@@ -2349,6 +2460,7 @@
     <cellStyle name="Millares 5 2" xfId="462"/>
     <cellStyle name="Millares 5 2 2" xfId="494"/>
     <cellStyle name="Millares 5 3" xfId="474"/>
+    <cellStyle name="Millares 5 4" xfId="798"/>
     <cellStyle name="Millares 6" xfId="201"/>
     <cellStyle name="Millares 6 2" xfId="495"/>
     <cellStyle name="Millares 6 3" xfId="475"/>
@@ -2603,6 +2715,7 @@
     <cellStyle name="Normal 40 2" xfId="742"/>
     <cellStyle name="Normal 41" xfId="322"/>
     <cellStyle name="Normal 41 2" xfId="743"/>
+    <cellStyle name="Normal 417" xfId="797"/>
     <cellStyle name="Normal 42" xfId="323"/>
     <cellStyle name="Normal 42 2" xfId="744"/>
     <cellStyle name="Normal 43" xfId="324"/>
@@ -2633,6 +2746,7 @@
     <cellStyle name="Normal 52" xfId="396"/>
     <cellStyle name="Normal 53" xfId="447"/>
     <cellStyle name="Normal 54" xfId="465"/>
+    <cellStyle name="Normal 55" xfId="796"/>
     <cellStyle name="Normal 6" xfId="334"/>
     <cellStyle name="Normal 6 2" xfId="335"/>
     <cellStyle name="Normal 6 2 2" xfId="751"/>
@@ -3010,6 +3124,431 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="FOR"/>
+      <sheetName val="IMSS"/>
+      <sheetName val="puestos"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="2">
+          <cell r="B2">
+            <v>51.95</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>1370</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>1370</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="FOR"/>
+      <sheetName val="IMSS"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="2">
+          <cell r="B2">
+            <v>51.95</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>54.8</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>164.39999999999998</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>1370</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>1370</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="IETU"/>
+      <sheetName val="PERSONAL OP ROV"/>
+      <sheetName val="DATOS"/>
+      <sheetName val="AHORRO"/>
+      <sheetName val="ISR"/>
+      <sheetName val="IMSS"/>
+      <sheetName val="FOR"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1">
+        <row r="36">
+          <cell r="F36">
+            <v>0.01</v>
+          </cell>
+          <cell r="G36">
+            <v>496.08</v>
+          </cell>
+          <cell r="H36">
+            <v>0</v>
+          </cell>
+          <cell r="I36">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="F37">
+            <v>496.09</v>
+          </cell>
+          <cell r="G37">
+            <v>4210.41</v>
+          </cell>
+          <cell r="H37">
+            <v>14.88</v>
+          </cell>
+          <cell r="I37">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="F38">
+            <v>4210.42</v>
+          </cell>
+          <cell r="G38">
+            <v>7399.42</v>
+          </cell>
+          <cell r="H38">
+            <v>386.31</v>
+          </cell>
+          <cell r="I38">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="F39">
+            <v>7399.43</v>
+          </cell>
+          <cell r="G39">
+            <v>8601.5</v>
+          </cell>
+          <cell r="H39">
+            <v>928.46</v>
+          </cell>
+          <cell r="I39">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="F40">
+            <v>8601.51</v>
+          </cell>
+          <cell r="G40" t="str">
+            <v>en adelante</v>
+          </cell>
+          <cell r="H40">
+            <v>1228.98</v>
+          </cell>
+          <cell r="I40">
+            <v>0.28000000000000003</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="F46">
+            <v>0.01</v>
+          </cell>
+          <cell r="G46">
+            <v>496.07</v>
+          </cell>
+          <cell r="H46">
+            <v>0</v>
+          </cell>
+          <cell r="I46">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="F47">
+            <v>496.08</v>
+          </cell>
+          <cell r="G47">
+            <v>4210.41</v>
+          </cell>
+          <cell r="H47">
+            <v>7.44</v>
+          </cell>
+          <cell r="I47">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="F48">
+            <v>4210.42</v>
+          </cell>
+          <cell r="G48">
+            <v>7399.42</v>
+          </cell>
+          <cell r="H48">
+            <v>193.17</v>
+          </cell>
+          <cell r="I48">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="F49">
+            <v>7399.43</v>
+          </cell>
+          <cell r="G49">
+            <v>8601.5</v>
+          </cell>
+          <cell r="H49">
+            <v>464.19</v>
+          </cell>
+          <cell r="I49">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="F50">
+            <v>8601.51</v>
+          </cell>
+          <cell r="G50">
+            <v>10298.35</v>
+          </cell>
+          <cell r="H50">
+            <v>614.49</v>
+          </cell>
+          <cell r="I50">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="F51">
+            <v>10298.36</v>
+          </cell>
+          <cell r="G51">
+            <v>20770.29</v>
+          </cell>
+          <cell r="H51">
+            <v>852.05</v>
+          </cell>
+          <cell r="I51">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="F52">
+            <v>20770.3</v>
+          </cell>
+          <cell r="G52">
+            <v>32736.83</v>
+          </cell>
+          <cell r="H52">
+            <v>2024.91</v>
+          </cell>
+          <cell r="I52">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="F53">
+            <v>32736.84</v>
+          </cell>
+          <cell r="G53" t="str">
+            <v>En adelante</v>
+          </cell>
+          <cell r="H53">
+            <v>3030.1</v>
+          </cell>
+          <cell r="I53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="F59">
+            <v>0.01</v>
+          </cell>
+          <cell r="G59">
+            <v>1768.96</v>
+          </cell>
+          <cell r="H59">
+            <v>407.02</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="F60">
+            <v>1768.97</v>
+          </cell>
+          <cell r="G60">
+            <v>2604.6799999999998</v>
+          </cell>
+          <cell r="H60">
+            <v>406.83</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="F61">
+            <v>2604.69</v>
+          </cell>
+          <cell r="G61">
+            <v>2653.38</v>
+          </cell>
+          <cell r="H61">
+            <v>406.83</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="F62">
+            <v>2653.39</v>
+          </cell>
+          <cell r="G62">
+            <v>3472.84</v>
+          </cell>
+          <cell r="H62">
+            <v>406.62</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="F63">
+            <v>3472.85</v>
+          </cell>
+          <cell r="G63">
+            <v>3537.87</v>
+          </cell>
+          <cell r="H63">
+            <v>392.77</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="F64">
+            <v>3537.88</v>
+          </cell>
+          <cell r="G64">
+            <v>3785.54</v>
+          </cell>
+          <cell r="H64">
+            <v>382.46</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="F65">
+            <v>3785.55</v>
+          </cell>
+          <cell r="G65">
+            <v>4446.1499999999996</v>
+          </cell>
+          <cell r="H65">
+            <v>382.46</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="F66">
+            <v>4446.16</v>
+          </cell>
+          <cell r="G66">
+            <v>4717.18</v>
+          </cell>
+          <cell r="H66">
+            <v>354.23</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="F67">
+            <v>4717.1899999999996</v>
+          </cell>
+          <cell r="G67">
+            <v>5335.42</v>
+          </cell>
+          <cell r="H67">
+            <v>324.87</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="F68">
+            <v>5335.43</v>
+          </cell>
+          <cell r="G68">
+            <v>6224.67</v>
+          </cell>
+          <cell r="H68">
+            <v>294.63</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="F69">
+            <v>6224.68</v>
+          </cell>
+          <cell r="G69">
+            <v>7113.9</v>
+          </cell>
+          <cell r="H69">
+            <v>253.54</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="F70">
+            <v>7113.91</v>
+          </cell>
+          <cell r="G70">
+            <v>7382.33</v>
+          </cell>
+          <cell r="H70">
+            <v>217.61</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="F71">
+            <v>7382.34</v>
+          </cell>
+          <cell r="G71" t="str">
+            <v>En adelante</v>
+          </cell>
+          <cell r="H71">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="puestos"/>
       <sheetName val="nomina"/>
       <sheetName val="meses"/>
@@ -3756,152 +4295,152 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="52" t="s">
+      <c r="K9" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="49" t="s">
+      <c r="L9" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="49" t="s">
+      <c r="M9" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="49" t="s">
+      <c r="N9" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="49" t="s">
+      <c r="O9" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="P9" s="49" t="s">
+      <c r="P9" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="Q9" s="49" t="s">
+      <c r="Q9" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="R9" s="52" t="s">
+      <c r="R9" s="59" t="s">
         <v>40</v>
       </c>
       <c r="S9" s="31"/>
-      <c r="T9" s="49" t="s">
+      <c r="T9" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="U9" s="49" t="s">
+      <c r="U9" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="V9" s="49" t="s">
+      <c r="V9" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49" t="s">
+      <c r="W9" s="56"/>
+      <c r="X9" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="Y9" s="49" t="s">
+      <c r="Y9" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="Z9" s="49" t="s">
+      <c r="Z9" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="AA9" s="53" t="s">
+      <c r="AA9" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="AB9" s="53" t="s">
+      <c r="AB9" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="AC9" s="53" t="s">
+      <c r="AC9" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="AD9" s="53" t="s">
+      <c r="AD9" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="AE9" s="53" t="s">
+      <c r="AE9" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="AF9" s="49" t="s">
+      <c r="AF9" s="56" t="s">
         <v>1</v>
       </c>
       <c r="AG9" s="33"/>
       <c r="AH9" s="33"/>
-      <c r="AI9" s="49" t="s">
+      <c r="AI9" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AK9" s="50" t="s">
+      <c r="AK9" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="AL9" s="51" t="s">
+      <c r="AL9" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="52"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="59"/>
       <c r="S10" s="31"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="49"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="56"/>
       <c r="AG10" s="32" t="s">
         <v>2</v>
       </c>
       <c r="AH10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AI10" s="49"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="51"/>
+      <c r="AI10" s="56"/>
+      <c r="AK10" s="57"/>
+      <c r="AL10" s="58"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F11" s="30"/>
@@ -4121,15 +4660,15 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="44"/>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
@@ -4145,15 +4684,15 @@
     </row>
     <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
@@ -4169,15 +4708,15 @@
     </row>
     <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="13"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -4196,10 +4735,10 @@
       <c r="A4" s="22"/>
       <c r="B4" s="43"/>
       <c r="C4" s="42"/>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="H4" s="42"/>
@@ -4316,15 +4855,15 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
       <c r="I7" s="13"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
@@ -4582,47 +5121,47 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="37"/>
       <c r="C4" s="36"/>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
@@ -4649,16 +5188,16 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B7" s="61" t="str">
+      <c r="B7" s="68" t="str">
         <f>'XURTEP ABORDO'!B7:H7</f>
         <v>Periodo  Adicional del 01/09/2018 al 30/09/2018</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
@@ -4927,44 +5466,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="56" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="B4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D5" s="46"/>
@@ -4992,4 +5531,166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="51"/>
+    <col min="2" max="2" width="37" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="34" style="51" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="51" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="51" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="51" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="52"/>
+      <c r="J2" s="53">
+        <f>H2+I2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="52"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="52"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="54"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="52"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="52"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="52"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="54"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="52"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="52"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="52"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="54"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="52"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="52"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="52"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="52"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="52"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="54"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="52"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="52"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="52"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="54"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="52"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="52"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="52"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="54"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="52"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="52"/>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="52"/>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="54"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="52"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="55"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:J1">
+    <sortState ref="B2:G2">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/XurtepNominas/bin/Debug/Archivos/nominasmarinos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominasmarinos.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
   <si>
     <t>TRABAJADOR</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>3 % S/NÓM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL </t>
+  </si>
+  <si>
+    <t>COSTO SOCIAL REAL</t>
   </si>
 </sst>
 </file>
@@ -2017,20 +2026,20 @@
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0" xfId="797" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="61" fillId="0" borderId="0" xfId="798" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="61" fillId="0" borderId="0" xfId="797" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2903,7 +2912,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2982,7 +2991,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3061,7 +3070,7 @@
         <xdr:cNvPr id="2" name="1 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4295,152 +4304,152 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="56" t="s">
+      <c r="L9" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="56" t="s">
+      <c r="M9" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="56" t="s">
+      <c r="N9" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="56" t="s">
+      <c r="O9" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="P9" s="56" t="s">
+      <c r="P9" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="Q9" s="56" t="s">
+      <c r="Q9" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="R9" s="59" t="s">
+      <c r="R9" s="58" t="s">
         <v>40</v>
       </c>
       <c r="S9" s="31"/>
-      <c r="T9" s="56" t="s">
+      <c r="T9" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="U9" s="56" t="s">
+      <c r="U9" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="V9" s="56" t="s">
+      <c r="V9" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56" t="s">
+      <c r="W9" s="57"/>
+      <c r="X9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="Y9" s="56" t="s">
+      <c r="Y9" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Z9" s="56" t="s">
+      <c r="Z9" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AA9" s="60" t="s">
+      <c r="AA9" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AB9" s="60" t="s">
+      <c r="AB9" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="AC9" s="60" t="s">
+      <c r="AC9" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="AD9" s="60" t="s">
+      <c r="AD9" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="AE9" s="60" t="s">
+      <c r="AE9" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="AF9" s="56" t="s">
+      <c r="AF9" s="57" t="s">
         <v>1</v>
       </c>
       <c r="AG9" s="33"/>
       <c r="AH9" s="33"/>
-      <c r="AI9" s="56" t="s">
+      <c r="AI9" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="AK9" s="57" t="s">
+      <c r="AK9" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="AL9" s="58" t="s">
+      <c r="AL9" s="60" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="59"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="58"/>
       <c r="S10" s="31"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="57"/>
       <c r="AG10" s="32" t="s">
         <v>2</v>
       </c>
       <c r="AH10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AI10" s="56"/>
-      <c r="AK10" s="57"/>
-      <c r="AL10" s="58"/>
+      <c r="AI10" s="57"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="60"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F11" s="30"/>
@@ -4575,24 +4584,6 @@
     <sortCondition ref="C11:C23"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J9:J10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="AK9:AK10"/>
@@ -4609,6 +4600,24 @@
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AE9:AE10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
@@ -4619,13 +4628,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:AL12"/>
+  <dimension ref="A1:AS12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane xSplit="1" ySplit="11" topLeftCell="T12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AG11" sqref="AG11"/>
+      <selection pane="bottomRight" activeCell="AN11" sqref="AN11:AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4658,7 +4667,7 @@
     <col min="38" max="38" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="44"/>
       <c r="B1" s="61" t="s">
         <v>31</v>
@@ -4682,7 +4691,7 @@
       <c r="AK1" s="22"/>
       <c r="AL1" s="22"/>
     </row>
-    <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="62" t="s">
         <v>49</v>
@@ -4706,7 +4715,7 @@
       <c r="AK2" s="22"/>
       <c r="AL2" s="22"/>
     </row>
-    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="63" t="s">
         <v>32</v>
@@ -4731,7 +4740,7 @@
       <c r="AK3" s="22"/>
       <c r="AL3" s="22"/>
     </row>
-    <row r="4" spans="1:38" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="43"/>
       <c r="C4" s="42"/>
@@ -4773,7 +4782,7 @@
       <c r="AK4" s="22"/>
       <c r="AL4" s="22"/>
     </row>
-    <row r="5" spans="1:38" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="43"/>
       <c r="C5" s="42"/>
@@ -4813,7 +4822,7 @@
       <c r="AK5" s="22"/>
       <c r="AL5" s="22"/>
     </row>
-    <row r="6" spans="1:38" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="43"/>
       <c r="C6" s="42"/>
@@ -4853,7 +4862,7 @@
       <c r="AK6" s="22"/>
       <c r="AL6" s="22"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="64" t="s">
         <v>82</v>
@@ -4878,7 +4887,7 @@
       <c r="AK7" s="22"/>
       <c r="AL7" s="22"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="11" t="s">
         <v>50</v>
@@ -4902,7 +4911,7 @@
       <c r="AK8" s="22"/>
       <c r="AL8" s="22"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="11" t="s">
         <v>51</v>
@@ -4926,7 +4935,7 @@
       <c r="AK9" s="22"/>
       <c r="AL9" s="22"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -4948,7 +4957,7 @@
       <c r="AK10" s="22"/>
       <c r="AL10" s="22"/>
     </row>
-    <row r="11" spans="1:38" s="8" customFormat="1" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" s="8" customFormat="1" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
@@ -5063,8 +5072,26 @@
       <c r="AL11" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="AN11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS11" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A12:AK25">
     <sortCondition ref="B12:B25"/>
@@ -5088,13 +5115,13 @@
   <sheetPr codeName="Hoja8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL13"/>
+  <dimension ref="A1:AS13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="T12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AG1" sqref="AG1:AG1048576"/>
+      <selection pane="bottomRight" activeCell="AN11" sqref="AN11:AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5116,10 +5143,12 @@
     <col min="33" max="33" width="11.42578125" style="46" customWidth="1"/>
     <col min="34" max="37" width="11.42578125" style="22" customWidth="1"/>
     <col min="38" max="38" width="12.7109375" style="22" customWidth="1"/>
-    <col min="39" max="16384" width="10.85546875" style="22"/>
+    <col min="39" max="44" width="10.85546875" style="22"/>
+    <col min="45" max="45" width="18.7109375" style="22" customWidth="1"/>
+    <col min="46" max="16384" width="10.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="61" t="s">
         <v>31</v>
@@ -5131,7 +5160,7 @@
       <c r="G1" s="66"/>
       <c r="H1" s="66"/>
     </row>
-    <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="62" t="s">
         <v>49</v>
@@ -5143,7 +5172,7 @@
       <c r="G2" s="67"/>
       <c r="H2" s="67"/>
     </row>
-    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="63" t="s">
         <v>32</v>
       </c>
@@ -5155,7 +5184,7 @@
       <c r="H3" s="66"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="37"/>
       <c r="C4" s="36"/>
       <c r="D4" s="65" t="s">
@@ -5167,7 +5196,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="37"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -5177,7 +5206,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="37"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -5187,7 +5216,7 @@
       <c r="H6" s="36"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B7" s="68" t="str">
         <f>'XURTEP ABORDO'!B7:H7</f>
         <v>Periodo  Adicional del 01/09/2018 al 30/09/2018</v>
@@ -5200,7 +5229,7 @@
       <c r="H7" s="68"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>50</v>
       </c>
@@ -5212,15 +5241,15 @@
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="36"/>
     </row>
-    <row r="11" spans="1:38" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
@@ -5335,9 +5364,27 @@
       <c r="AL11" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS11" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AL13" s="23"/>
     </row>
   </sheetData>
@@ -5466,44 +5513,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="57" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D5" s="46"/>

--- a/XurtepNominas/bin/Debug/Archivos/nominasmarinos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominasmarinos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="649" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="649"/>
   </bookViews>
   <sheets>
     <sheet name="MARINOS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
   <definedNames>
     <definedName name="__TC1">[1]FOR!$B$9</definedName>
     <definedName name="__TC2">[1]FOR!$B$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MARINOS!$A$10:$AP$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MARINOS!$A$10:$AQ$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'PENSION ALIMENTICIA'!$B$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">RESUMEN!$B$3:$K$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'XURTEP ABORDO'!$A$11:$AL$11</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="96">
   <si>
     <t>TRABAJADOR</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>COSTO SOCIAL REAL</t>
+  </si>
+  <si>
+    <t>RETENCION 6%</t>
   </si>
 </sst>
 </file>
@@ -1915,7 +1918,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2026,20 +2029,20 @@
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0" xfId="797" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="61" fillId="0" borderId="0" xfId="798" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="61" fillId="0" borderId="0" xfId="797" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2062,6 +2065,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="799">
@@ -2912,7 +2918,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +2997,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3070,7 +3076,7 @@
         <xdr:cNvPr id="2" name="1 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3960,14 +3966,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AL31"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="X11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4001,11 +4007,12 @@
     <col min="32" max="32" width="13.140625" customWidth="1"/>
     <col min="33" max="33" width="13.85546875" customWidth="1"/>
     <col min="34" max="34" width="12.28515625" customWidth="1"/>
-    <col min="35" max="35" width="14.140625" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" style="46" customWidth="1"/>
+    <col min="36" max="36" width="14.140625" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -4043,8 +4050,9 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
       <c r="AI1" s="4"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="4"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4080,8 +4088,9 @@
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
-    </row>
-    <row r="3" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="1"/>
+    </row>
+    <row r="3" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4117,8 +4126,9 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
-    </row>
-    <row r="4" spans="1:38" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="1"/>
+    </row>
+    <row r="4" spans="1:39" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -4154,8 +4164,9 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
-    </row>
-    <row r="5" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="1"/>
+    </row>
+    <row r="5" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4191,8 +4202,9 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-    </row>
-    <row r="6" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="1"/>
+    </row>
+    <row r="6" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4228,8 +4240,9 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
-    </row>
-    <row r="7" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="1"/>
+    </row>
+    <row r="7" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4265,8 +4278,9 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
-    </row>
-    <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="1"/>
+    </row>
+    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
@@ -4302,156 +4316,161 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
-    </row>
-    <row r="9" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="AJ8" s="1"/>
+    </row>
+    <row r="9" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="58" t="s">
+      <c r="K9" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="57" t="s">
+      <c r="M9" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="57" t="s">
+      <c r="N9" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="57" t="s">
+      <c r="O9" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="P9" s="57" t="s">
+      <c r="P9" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="Q9" s="57" t="s">
+      <c r="Q9" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="R9" s="58" t="s">
+      <c r="R9" s="59" t="s">
         <v>40</v>
       </c>
       <c r="S9" s="31"/>
-      <c r="T9" s="57" t="s">
+      <c r="T9" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="U9" s="57" t="s">
+      <c r="U9" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="V9" s="57" t="s">
+      <c r="V9" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57" t="s">
+      <c r="W9" s="56"/>
+      <c r="X9" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="Y9" s="57" t="s">
+      <c r="Y9" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="Z9" s="57" t="s">
+      <c r="Z9" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="AA9" s="56" t="s">
+      <c r="AA9" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="AB9" s="56" t="s">
+      <c r="AB9" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="AC9" s="56" t="s">
+      <c r="AC9" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="AD9" s="56" t="s">
+      <c r="AD9" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="AE9" s="56" t="s">
+      <c r="AE9" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="AF9" s="57" t="s">
+      <c r="AF9" s="56" t="s">
         <v>1</v>
       </c>
       <c r="AG9" s="33"/>
       <c r="AH9" s="33"/>
-      <c r="AI9" s="57" t="s">
+      <c r="AI9" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ9" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AK9" s="59" t="s">
+      <c r="AL9" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="AL9" s="60" t="s">
+      <c r="AM9" s="58" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="58"/>
+    <row r="10" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="59"/>
       <c r="S10" s="31"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="57"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="56"/>
       <c r="AG10" s="32" t="s">
         <v>2</v>
       </c>
       <c r="AH10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AI10" s="57"/>
-      <c r="AK10" s="59"/>
-      <c r="AL10" s="60"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="56"/>
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="58"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F11" s="30"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -4473,7 +4492,7 @@
       <c r="X11" s="24"/>
       <c r="Y11" s="24"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D12" s="25"/>
       <c r="F12" s="30"/>
       <c r="G12" s="25"/>
@@ -4496,7 +4515,7 @@
       <c r="X12" s="24"/>
       <c r="Y12" s="24"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D13" s="7"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -4519,10 +4538,10 @@
       <c r="X13" s="24"/>
       <c r="Y13" s="24"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="R15" s="20"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="R16" s="20"/>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.25">
@@ -4583,23 +4602,13 @@
   <sortState ref="A11:AF23">
     <sortCondition ref="C11:C23"/>
   </sortState>
-  <mergeCells count="34">
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AL9:AL10"/>
+  <mergeCells count="35">
     <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
@@ -4613,11 +4622,22 @@
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
@@ -4630,11 +4650,11 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AS12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="T12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AN11" sqref="AN11:AS11"/>
+      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5513,44 +5533,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="56" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
+      <c r="B4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D5" s="46"/>

--- a/XurtepNominas/bin/Debug/Archivos/nominasmarinos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominasmarinos.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
   <si>
     <t>TRABAJADOR</t>
   </si>
@@ -176,9 +176,6 @@
     <t>CUENTA</t>
   </si>
   <si>
-    <t>% COMISION</t>
-  </si>
-  <si>
     <t>SUELDO ORDINARIO NETO</t>
   </si>
   <si>
@@ -345,6 +342,12 @@
   </si>
   <si>
     <t>RETENCION 6%</t>
+  </si>
+  <si>
+    <t>% COMISION SA</t>
+  </si>
+  <si>
+    <t>% COMISION ASIM</t>
   </si>
 </sst>
 </file>
@@ -744,6 +747,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2029,20 +2033,23 @@
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0" xfId="797" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="61" fillId="0" borderId="0" xfId="798" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="61" fillId="0" borderId="0" xfId="797" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2065,9 +2072,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="799">
@@ -2918,7 +2922,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2997,7 +3001,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3076,7 +3080,7 @@
         <xdr:cNvPr id="2" name="1 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3969,11 +3973,11 @@
   <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="S23" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3997,7 +4001,7 @@
     <col min="20" max="20" width="13.85546875" customWidth="1"/>
     <col min="21" max="21" width="15.42578125" customWidth="1"/>
     <col min="22" max="22" width="15.42578125" style="12" customWidth="1"/>
-    <col min="23" max="23" width="5.42578125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="13" style="12" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.140625" customWidth="1"/>
     <col min="25" max="25" width="13.42578125" style="12" customWidth="1"/>
     <col min="26" max="26" width="15.42578125" style="12" customWidth="1"/>
@@ -4319,156 +4323,158 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="56" t="s">
-        <v>59</v>
-      </c>
       <c r="K9" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="31"/>
+      <c r="T9" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="R9" s="59" t="s">
+      <c r="V9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="W9" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y9" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z9" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="31"/>
-      <c r="T9" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="U9" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="V9" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y9" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z9" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA9" s="60" t="s">
+      <c r="AA9" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AB9" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC9" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD9" s="60" t="s">
+      <c r="AB9" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC9" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD9" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE9" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="AE9" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF9" s="56" t="s">
+      <c r="AF9" s="58" t="s">
         <v>1</v>
       </c>
       <c r="AG9" s="33"/>
       <c r="AH9" s="33"/>
-      <c r="AI9" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ9" s="56" t="s">
+      <c r="AI9" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ9" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AL9" s="57" t="s">
+      <c r="AL9" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM9" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="AM9" s="58" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="10" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
       <c r="K10" s="59"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
       <c r="R10" s="59"/>
       <c r="S10" s="31"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="56"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="58"/>
       <c r="AG10" s="32" t="s">
         <v>2</v>
       </c>
       <c r="AH10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="56"/>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="58"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="58"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="61"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F11" s="30"/>
@@ -4603,25 +4609,6 @@
     <sortCondition ref="C11:C23"/>
   </sortState>
   <mergeCells count="35">
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J9:J10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="AL9:AL10"/>
@@ -4638,6 +4625,25 @@
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AE9:AE10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
@@ -4689,15 +4695,15 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="44"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
@@ -4713,15 +4719,15 @@
     </row>
     <row r="2" spans="1:45" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
-      <c r="B2" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
@@ -4737,15 +4743,15 @@
     </row>
     <row r="3" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="13"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -4764,10 +4770,10 @@
       <c r="A4" s="22"/>
       <c r="B4" s="43"/>
       <c r="C4" s="42"/>
-      <c r="D4" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="65"/>
+      <c r="D4" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="66"/>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="H4" s="42"/>
@@ -4884,15 +4890,15 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
-      <c r="B7" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
+      <c r="B7" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="13"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
@@ -4910,7 +4916,7 @@
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -4934,7 +4940,7 @@
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4988,7 +4994,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>13</v>
@@ -4997,7 +5003,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>33</v>
@@ -5021,10 +5027,10 @@
         <v>17</v>
       </c>
       <c r="O11" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="47" t="s">
         <v>67</v>
-      </c>
-      <c r="P11" s="47" t="s">
-        <v>68</v>
       </c>
       <c r="Q11" s="47" t="s">
         <v>18</v>
@@ -5033,7 +5039,7 @@
         <v>19</v>
       </c>
       <c r="S11" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T11" s="47" t="s">
         <v>20</v>
@@ -5060,7 +5066,7 @@
         <v>27</v>
       </c>
       <c r="AB11" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC11" s="15" t="s">
         <v>28</v>
@@ -5069,22 +5075,22 @@
         <v>29</v>
       </c>
       <c r="AE11" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF11" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG11" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH11" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI11" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ11" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK11" s="16" t="s">
         <v>35</v>
@@ -5096,19 +5102,19 @@
         <v>29</v>
       </c>
       <c r="AO11" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AP11" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AQ11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR11" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AR11" s="16" t="s">
+      <c r="AS11" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="AS11" s="18" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -5170,47 +5176,47 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:45" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+      <c r="B2" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="37"/>
       <c r="C4" s="36"/>
-      <c r="D4" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="65"/>
+      <c r="D4" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="66"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
@@ -5237,21 +5243,21 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B7" s="68" t="str">
+      <c r="B7" s="69" t="str">
         <f>'XURTEP ABORDO'!B7:H7</f>
         <v>Periodo  Adicional del 01/09/2018 al 30/09/2018</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
@@ -5263,7 +5269,7 @@
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5280,7 +5286,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>13</v>
@@ -5289,7 +5295,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>33</v>
@@ -5313,10 +5319,10 @@
         <v>17</v>
       </c>
       <c r="O11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="Q11" s="15" t="s">
         <v>18</v>
@@ -5325,7 +5331,7 @@
         <v>19</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>20</v>
@@ -5352,7 +5358,7 @@
         <v>27</v>
       </c>
       <c r="AB11" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC11" s="15" t="s">
         <v>28</v>
@@ -5361,22 +5367,22 @@
         <v>29</v>
       </c>
       <c r="AE11" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF11" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG11" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH11" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI11" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ11" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK11" s="16" t="s">
         <v>35</v>
@@ -5388,19 +5394,19 @@
         <v>29</v>
       </c>
       <c r="AO11" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AP11" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AQ11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR11" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AR11" s="16" t="s">
+      <c r="AS11" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="AS11" s="18" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -5449,19 +5455,19 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>64</v>
       </c>
       <c r="F1" s="38" t="s">
         <v>16</v>
@@ -5473,10 +5479,10 @@
         <v>38</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K1" s="34" t="s">
         <v>13</v>
@@ -5533,44 +5539,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="56" t="s">
+      <c r="I3" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="56" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
+      <c r="B4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D5" s="46"/>
@@ -5622,10 +5628,10 @@
   <sheetData>
     <row r="1" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>86</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>87</v>
       </c>
       <c r="D1" s="50" t="s">
         <v>37</v>
@@ -5634,19 +5640,19 @@
         <v>38</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>90</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
